--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87BA0A-BCAC-1E4D-ADF0-06B9C09C1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan" sheetId="2" r:id="rId1"/>
-    <sheet name="vMixConfig" sheetId="1" r:id="rId2"/>
-    <sheet name="Reference" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="2" name="Plan" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="vMixConfig" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Reference" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="254">
   <si>
     <t>Input #</t>
   </si>
@@ -55,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Speaker/
+    <t xml:space="preserve">Speaker/
 performer</t>
   </si>
   <si>
@@ -797,28 +784,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1164,1425 +1151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <f>INDEX(vMixConfig!B:B,MATCH($F2,vMixConfig!$E:$E,0))</f>
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>IF(AND((LEFT(F2,1)=LEFT(F3,1)),(F2&lt;&gt;F3)),"CAMERA","")</f>
-        <v/>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F2,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <f>INDEX(vMixConfig!B:B,MATCH($F3,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E47" si="0">IF(AND((LEFT(F3,1)=LEFT(F4,1)),(F3&lt;&gt;F4)),"CAMERA","")</f>
-        <v/>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F3,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.45138888889050577</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <f>INDEX(vMixConfig!B:B,MATCH($F4,vMixConfig!$E:$E,0))</f>
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F4,vMixConfig!$E:$E,0))</f>
-        <v>Photos</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <f>INDEX(vMixConfig!B:B,MATCH($F5,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F5,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <f>INDEX(vMixConfig!B:B,MATCH($F6,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F6,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f>INDEX(vMixConfig!B:B,MATCH($F7,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F7,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f>INDEX(vMixConfig!B:B,MATCH($F8,vMixConfig!$E:$E,0))</f>
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F8,vMixConfig!$E:$E,0))</f>
-        <v>Video</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>INDEX(vMixConfig!B:B,MATCH($F9,vMixConfig!$E:$E,0))</f>
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F9,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f>INDEX(vMixConfig!B:B,MATCH($F10,vMixConfig!$E:$E,0))</f>
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F10,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <f>INDEX(vMixConfig!B:B,MATCH($F11,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F11,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>INDEX(vMixConfig!B:B,MATCH($F12,vMixConfig!$E:$E,0))</f>
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F12,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <f>INDEX(vMixConfig!B:B,MATCH($F13,vMixConfig!$E:$E,0))</f>
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F13,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <f>INDEX(vMixConfig!B:B,MATCH($F14,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F14,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <f>INDEX(vMixConfig!B:B,MATCH($F15,vMixConfig!$E:$E,0))</f>
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F15,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <f>INDEX(vMixConfig!B:B,MATCH($F16,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F16,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f>INDEX(vMixConfig!B:B,MATCH($F17,vMixConfig!$E:$E,0))</f>
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F17,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f>INDEX(vMixConfig!B:B,MATCH($F18,vMixConfig!$E:$E,0))</f>
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F18,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f>INDEX(vMixConfig!B:B,MATCH($F19,vMixConfig!$E:$E,0))</f>
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F19,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f>INDEX(vMixConfig!B:B,MATCH($F20,vMixConfig!$E:$E,0))</f>
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CAMERA</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F20,vMixConfig!$E:$E,0))</f>
-        <v>Colour</v>
-      </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f>INDEX(vMixConfig!B:B,MATCH($F21,vMixConfig!$E:$E,0))</f>
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F21,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f>INDEX(vMixConfig!B:B,MATCH($F22,vMixConfig!$E:$E,0))</f>
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F22,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f>INDEX(vMixConfig!B:B,MATCH($F23,vMixConfig!$E:$E,0))</f>
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F23,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f>INDEX(vMixConfig!B:B,MATCH($F24,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F24,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f>INDEX(vMixConfig!B:B,MATCH($F25,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F25,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <f>INDEX(vMixConfig!B:B,MATCH($F26,vMixConfig!$E:$E,0))</f>
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F26,vMixConfig!$E:$E,0))</f>
-        <v>GT</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f>INDEX(vMixConfig!B:B,MATCH($F27,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F27,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f>INDEX(vMixConfig!B:B,MATCH($F28,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F28,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f>INDEX(vMixConfig!B:B,MATCH($F29,vMixConfig!$E:$E,0))</f>
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F29,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
-      </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f>INDEX(vMixConfig!B:B,MATCH($F30,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F30,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f>INDEX(vMixConfig!B:B,MATCH($F31,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F31,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <f>INDEX(vMixConfig!B:B,MATCH($F32,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F32,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <f>INDEX(vMixConfig!B:B,MATCH($F33,vMixConfig!$E:$E,0))</f>
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F33,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
-      </c>
-      <c r="H33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <f>INDEX(vMixConfig!B:B,MATCH($F34,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F34,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <f>INDEX(vMixConfig!B:B,MATCH($F35,vMixConfig!$E:$E,0))</f>
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F35,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
-      </c>
-      <c r="H35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <f>INDEX(vMixConfig!B:B,MATCH($F36,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F36,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
-      </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f>INDEX(vMixConfig!B:B,MATCH($F37,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CAMERA</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F37,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
-      </c>
-      <c r="H37" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <f>INDEX(vMixConfig!B:B,MATCH($F38,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F38,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <f>INDEX(vMixConfig!B:B,MATCH($F39,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F39,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <f>INDEX(vMixConfig!B:B,MATCH($F40,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F40,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <f>INDEX(vMixConfig!B:B,MATCH($F41,vMixConfig!$E:$E,0))</f>
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F41,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
-      </c>
-      <c r="H41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <f>INDEX(vMixConfig!B:B,MATCH($F42,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F42,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <f>INDEX(vMixConfig!B:B,MATCH($F43,vMixConfig!$E:$E,0))</f>
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F43,vMixConfig!$E:$E,0))</f>
-        <v>Image</v>
-      </c>
-      <c r="H43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <f>INDEX(vMixConfig!B:B,MATCH($F44,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F44,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <f>INDEX(vMixConfig!B:B,MATCH($F45,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F45,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f>INDEX(vMixConfig!B:B,MATCH($F46,vMixConfig!$E:$E,0))</f>
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F46,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <f>INDEX(vMixConfig!B:B,MATCH($F47,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="str">
-        <f>INDEX(vMixConfig!C:C,MATCH($F47,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
-      </c>
-      <c r="H47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="str">
-        <f t="shared" ref="E52" si="1">IF(AND((LEFT(F52,1)=LEFT(F53,1)),(F52&lt;&gt;F53)),"X","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showErrorMessage="1" error="Not a supported vMix Command" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Reference!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C9999</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Not a supported vMix Command" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D9999</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1" error="Does not match vMix Configuration" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>vMixConfig!$T:$T</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F9999</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T998"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -2603,7 +1179,7 @@
     <col min="19" max="19" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -2659,7 +1235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2700,10 +1276,10 @@
         <v>134</v>
       </c>
       <c r="N2">
-        <v>6.9197909999999998E-3</v>
+        <v>0.006919791</v>
       </c>
       <c r="O2">
-        <v>6.9197909999999998E-3</v>
+        <v>0.006919791</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -2712,7 +1288,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -2753,10 +1329,10 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>4.2666220000000003E-3</v>
+        <v>0.004266622</v>
       </c>
       <c r="O3">
-        <v>4.2666220000000003E-3</v>
+        <v>0.004266622</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -2765,7 +1341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2806,10 +1382,10 @@
         <v>134</v>
       </c>
       <c r="N4">
-        <v>6.3132300000000004E-3</v>
+        <v>0.00631323</v>
       </c>
       <c r="O4">
-        <v>6.3132300000000004E-3</v>
+        <v>0.00631323</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -2818,7 +1394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -2847,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>43.046720000000001</v>
+        <v>43.04672</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2859,10 +1435,10 @@
         <v>134</v>
       </c>
       <c r="N5">
-        <v>1.47379E-4</v>
+        <v>0.000147379</v>
       </c>
       <c r="O5">
-        <v>1.47379E-4</v>
+        <v>0.000147379</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2871,7 +1447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2912,10 +1488,10 @@
         <v>134</v>
       </c>
       <c r="N6">
-        <v>6.0468000000000002E-4</v>
+        <v>0.00060468</v>
       </c>
       <c r="O6">
-        <v>6.0468000000000002E-4</v>
+        <v>0.00060468</v>
       </c>
       <c r="P6">
         <v>3.000003</v>
@@ -2924,7 +1500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2965,19 +1541,19 @@
         <v>134</v>
       </c>
       <c r="N7">
-        <v>5.5990800000000002E-4</v>
+        <v>0.000559908</v>
       </c>
       <c r="O7">
-        <v>5.5990800000000002E-4</v>
+        <v>0.000559908</v>
       </c>
       <c r="P7">
-        <v>5.9999989999999999</v>
+        <v>5.999999</v>
       </c>
       <c r="T7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -3018,10 +1594,10 @@
         <v>134</v>
       </c>
       <c r="N8" s="4">
-        <v>7.0400000000000004E-5</v>
+        <v>0.0000704</v>
       </c>
       <c r="O8" s="4">
-        <v>7.0400000000000004E-5</v>
+        <v>0.0000704</v>
       </c>
       <c r="P8">
         <v>13</v>
@@ -3030,7 +1606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -3071,10 +1647,10 @@
         <v>134</v>
       </c>
       <c r="N9">
-        <v>1.1172500000000001E-4</v>
+        <v>0.000111725</v>
       </c>
       <c r="O9">
-        <v>1.1172500000000001E-4</v>
+        <v>0.000111725</v>
       </c>
       <c r="P9">
         <v>14</v>
@@ -3083,7 +1659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3124,10 +1700,10 @@
         <v>134</v>
       </c>
       <c r="N10" s="4">
-        <v>8.9900000000000003E-5</v>
+        <v>0.0000899</v>
       </c>
       <c r="O10" s="4">
-        <v>8.9900000000000003E-5</v>
+        <v>0.0000899</v>
       </c>
       <c r="P10">
         <v>1.999997</v>
@@ -3136,7 +1712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -3177,10 +1753,10 @@
         <v>134</v>
       </c>
       <c r="N11">
-        <v>7.0607700000000005E-4</v>
+        <v>0.000706077</v>
       </c>
       <c r="O11">
-        <v>7.0607700000000005E-4</v>
+        <v>0.000706077</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3189,7 +1765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3242,7 +1818,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -3271,7 +1847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -3300,7 +1876,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -3329,7 +1905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -3358,7 +1934,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -3387,7 +1963,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -3416,7 +1992,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -3445,7 +2021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -3474,7 +2050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3503,7 +2079,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -3532,7 +2108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -3561,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -3590,7 +2166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -3619,7 +2195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3648,7 +2224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>198</v>
       </c>
@@ -3677,7 +2253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -3706,7 +2282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -3735,7 +2311,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -3764,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -3793,7 +2369,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -3822,7 +2398,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -3851,7 +2427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -3880,7 +2456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -3909,7 +2485,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -3938,7 +2514,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -3970,7 +2546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -3999,7 +2575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -4031,7 +2607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>229</v>
       </c>
@@ -4084,7 +2660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>231</v>
       </c>
@@ -4112,8 +2688,11 @@
       <c r="Q41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>232</v>
       </c>
@@ -4142,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -4171,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>237</v>
       </c>
@@ -4197,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>238</v>
       </c>
@@ -4226,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -4255,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -4284,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -4310,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>246</v>
       </c>
@@ -4339,7 +2918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -4368,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>250</v>
       </c>
@@ -4397,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -4423,971 +3002,2350 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="348" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="357" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="369" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="373" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="390" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="403" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="405" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="411" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="418" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="420" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="421" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="422" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="423" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="424" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="425" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="426" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="427" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="428" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="429" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="430" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="435" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="436" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="439" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="441" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="449" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="450" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="451" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="459" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="462" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="465" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="466" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="467" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="468" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="469" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="470" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="477" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="478" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="479" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="480" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="481" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="498" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="499" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="501" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="505" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="507" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="508" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="509" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="512" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="513" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="516" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="518" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="521" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="522" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="529" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="530" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="531" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="532" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="533" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="534" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="535" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="536" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="537" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="538" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="539" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="540" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="541" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="542" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="543" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="544" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="545" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="546" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="547" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="548" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="549" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="550" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="551" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="552" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="553" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="554" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="555" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="556" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="557" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="558" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="559" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="560" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="561" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="562" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="563" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="564" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="565" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="566" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="567" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="568" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="569" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="570" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="571" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="572" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="573" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="574" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="575" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="576" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="577" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="578" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="579" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="580" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="581" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="582" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="583" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="584" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="586" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="587" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="588" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="589" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="590" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="591" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="592" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="593" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="594" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="595" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="596" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="598" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="601" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="602" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="604" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="605" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="606" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="607" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="608" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="609" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="610" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="611" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="612" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="613" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="614" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="615" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="616" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="617" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="618" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="619" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="620" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="621" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="622" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="623" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="624" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="625" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="626" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="627" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="628" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="629" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="630" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="631" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="632" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="633" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="634" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="635" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="636" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="637" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="638" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="639" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="640" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="641" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="642" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="643" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="644" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="645" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="646" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="647" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="648" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="649" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="650" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="651" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="652" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="653" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="654" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="655" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="656" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="657" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="658" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="659" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="660" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="661" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="662" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="663" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="664" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="665" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="666" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="667" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="668" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="669" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="670" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="671" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="672" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="673" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="674" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="675" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="676" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="677" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="678" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="679" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="680" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="681" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="682" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="683" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="684" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="685" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="686" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="687" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="688" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="689" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="690" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="691" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="692" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="693" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="694" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="695" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="696" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="697" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="698" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="699" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="700" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="701" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="702" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="703" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="704" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="705" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="706" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="707" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="708" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="709" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="710" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="711" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="712" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="713" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="714" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="715" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="716" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="717" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="718" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="719" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="720" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="721" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="722" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="723" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="724" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="725" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="726" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="727" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="728" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="729" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="730" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="731" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="732" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="733" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="734" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="735" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="736" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="737" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="738" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="739" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="740" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="741" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="742" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="743" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="744" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="745" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="746" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="747" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="748" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="749" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="750" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="751" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="752" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="753" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="754" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="755" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="756" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="757" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="758" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="759" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="760" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="761" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="762" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="763" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="764" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="765" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="766" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="767" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="768" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="769" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="770" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="771" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="772" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="773" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="774" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="775" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="776" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="777" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="778" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="779" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="780" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="781" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="782" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="783" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="784" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="785" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="786" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="787" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="788" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="789" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="790" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="791" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="792" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="793" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="794" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="795" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="796" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="797" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="798" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="799" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="800" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="801" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="802" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="803" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="804" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="805" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="806" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="807" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="808" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="809" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="810" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="811" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="812" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="813" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="814" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="815" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="816" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="817" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="818" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="819" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="820" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="821" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="822" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="823" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="824" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="825" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="826" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="827" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="828" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="829" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="830" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="831" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="832" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="833" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="834" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="835" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="836" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="837" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="838" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="839" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="840" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="841" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="842" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="843" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="844" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="845" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="846" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="847" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="848" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="849" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="850" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="851" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="852" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="853" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="854" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="855" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="856" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="857" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="858" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="859" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="860" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="861" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="862" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="863" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="864" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="865" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="866" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="867" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="868" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="869" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="870" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="871" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="872" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="873" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="874" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="875" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="876" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="877" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="878" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="879" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="880" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="881" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="882" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="883" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="884" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="885" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="886" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="887" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="888" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="889" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="890" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="891" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="892" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="893" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="894" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="895" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="896" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="897" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="898" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="899" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="900" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="901" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="902" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="903" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="904" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="905" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="906" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="907" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="908" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="909" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="910" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="911" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="913" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="914" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="915" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="916" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="917" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="918" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="919" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="920" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="921" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="922" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="923" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="924" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="925" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="926" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="927" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="928" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="929" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="930" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="931" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="932" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="933" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="934" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="935" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="936" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="937" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="938" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="939" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="940" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="941" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="942" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="943" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="944" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="945" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="946" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="947" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="948" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="949" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="950" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="951" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="952" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="953" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="954" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="955" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="956" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="957" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="958" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="959" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="960" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="961" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="962" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="963" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="964" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="965" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="966" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="967" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="968" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="969" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="970" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="971" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="972" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="973" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="974" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="975" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="976" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="977" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="978" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="979" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="980" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="981" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="982" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="983" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="984" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="985" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="986" spans="3:20" x14ac:dyDescent="0.25"/>
+    <row r="987" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="988" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="989" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="990" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="991" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="992" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="993" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="994" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="995" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="996" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="997" spans="3:5" x14ac:dyDescent="0.25"/>
+    <row r="998" spans="3:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>INDEX(vMixConfig!B:B,MATCH($F2,vMixConfig!$E:$E,0))</f>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(AND((LEFT(F2,1)=LEFT(F3,1)),(F2&lt;&gt;F3)),"CAMERA","")</f>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F2,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>INDEX(vMixConfig!B:B,MATCH($F3,vMixConfig!$E:$E,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E47" si="0">IF(AND((LEFT(F3,1)=LEFT(F4,1)),(F3&lt;&gt;F4)),"CAMERA","")</f>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F3,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.45138888889050577</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>INDEX(vMixConfig!B:B,MATCH($F4,vMixConfig!$E:$E,0))</f>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F4,vMixConfig!$E:$E,0))</f>
+        <v>Photos</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>INDEX(vMixConfig!B:B,MATCH($F5,vMixConfig!$E:$E,0))</f>
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F5,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>INDEX(vMixConfig!B:B,MATCH($F6,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F6,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>INDEX(vMixConfig!B:B,MATCH($F7,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F7,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>INDEX(vMixConfig!B:B,MATCH($F8,vMixConfig!$E:$E,0))</f>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F8,vMixConfig!$E:$E,0))</f>
+        <v>Video</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>INDEX(vMixConfig!B:B,MATCH($F9,vMixConfig!$E:$E,0))</f>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F9,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>INDEX(vMixConfig!B:B,MATCH($F10,vMixConfig!$E:$E,0))</f>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F10,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>INDEX(vMixConfig!B:B,MATCH($F11,vMixConfig!$E:$E,0))</f>
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F11,vMixConfig!$E:$E,0))</f>
+        <v>VirtualSet</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>INDEX(vMixConfig!B:B,MATCH($F12,vMixConfig!$E:$E,0))</f>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F12,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>INDEX(vMixConfig!B:B,MATCH($F13,vMixConfig!$E:$E,0))</f>
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F13,vMixConfig!$E:$E,0))</f>
+        <v>PowerPoint</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>INDEX(vMixConfig!B:B,MATCH($F14,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F14,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>INDEX(vMixConfig!B:B,MATCH($F15,vMixConfig!$E:$E,0))</f>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F15,vMixConfig!$E:$E,0))</f>
+        <v>VirtualSet</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>INDEX(vMixConfig!B:B,MATCH($F16,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F16,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>INDEX(vMixConfig!B:B,MATCH($F17,vMixConfig!$E:$E,0))</f>
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F17,vMixConfig!$E:$E,0))</f>
+        <v>PowerPoint</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>INDEX(vMixConfig!B:B,MATCH($F18,vMixConfig!$E:$E,0))</f>
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F18,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>INDEX(vMixConfig!B:B,MATCH($F19,vMixConfig!$E:$E,0))</f>
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F19,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>INDEX(vMixConfig!B:B,MATCH($F20,vMixConfig!$E:$E,0))</f>
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CAMERA</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F20,vMixConfig!$E:$E,0))</f>
+        <v>Colour</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>INDEX(vMixConfig!B:B,MATCH($F21,vMixConfig!$E:$E,0))</f>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F21,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>INDEX(vMixConfig!B:B,MATCH($F22,vMixConfig!$E:$E,0))</f>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F22,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>INDEX(vMixConfig!B:B,MATCH($F23,vMixConfig!$E:$E,0))</f>
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F23,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>INDEX(vMixConfig!B:B,MATCH($F24,vMixConfig!$E:$E,0))</f>
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F24,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>INDEX(vMixConfig!B:B,MATCH($F25,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F25,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>INDEX(vMixConfig!B:B,MATCH($F26,vMixConfig!$E:$E,0))</f>
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F26,vMixConfig!$E:$E,0))</f>
+        <v>GT</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>INDEX(vMixConfig!B:B,MATCH($F27,vMixConfig!$E:$E,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F27,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>INDEX(vMixConfig!B:B,MATCH($F28,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F28,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>INDEX(vMixConfig!B:B,MATCH($F29,vMixConfig!$E:$E,0))</f>
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F29,vMixConfig!$E:$E,0))</f>
+        <v>PowerPoint</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>INDEX(vMixConfig!B:B,MATCH($F30,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F30,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>INDEX(vMixConfig!B:B,MATCH($F31,vMixConfig!$E:$E,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F31,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>INDEX(vMixConfig!B:B,MATCH($F32,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F32,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>INDEX(vMixConfig!B:B,MATCH($F33,vMixConfig!$E:$E,0))</f>
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F33,vMixConfig!$E:$E,0))</f>
+        <v>PowerPoint</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>INDEX(vMixConfig!B:B,MATCH($F34,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F34,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>INDEX(vMixConfig!B:B,MATCH($F35,vMixConfig!$E:$E,0))</f>
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F35,vMixConfig!$E:$E,0))</f>
+        <v>VirtualSet</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>INDEX(vMixConfig!B:B,MATCH($F36,vMixConfig!$E:$E,0))</f>
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F36,vMixConfig!$E:$E,0))</f>
+        <v>VirtualSet</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>INDEX(vMixConfig!B:B,MATCH($F37,vMixConfig!$E:$E,0))</f>
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CAMERA</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F37,vMixConfig!$E:$E,0))</f>
+        <v>VirtualSet</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>INDEX(vMixConfig!B:B,MATCH($F38,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F38,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>INDEX(vMixConfig!B:B,MATCH($F39,vMixConfig!$E:$E,0))</f>
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F39,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>INDEX(vMixConfig!B:B,MATCH($F40,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F40,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>INDEX(vMixConfig!B:B,MATCH($F41,vMixConfig!$E:$E,0))</f>
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F41,vMixConfig!$E:$E,0))</f>
+        <v>PowerPoint</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>INDEX(vMixConfig!B:B,MATCH($F42,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F42,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>INDEX(vMixConfig!B:B,MATCH($F43,vMixConfig!$E:$E,0))</f>
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F43,vMixConfig!$E:$E,0))</f>
+        <v>Image</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>INDEX(vMixConfig!B:B,MATCH($F44,vMixConfig!$E:$E,0))</f>
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F44,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>INDEX(vMixConfig!B:B,MATCH($F45,vMixConfig!$E:$E,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F45,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>INDEX(vMixConfig!B:B,MATCH($F46,vMixConfig!$E:$E,0))</f>
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F46,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>INDEX(vMixConfig!B:B,MATCH($F47,vMixConfig!$E:$E,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH($F47,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <f t="shared" ref="E52" si="1">IF(AND((LEFT(F52,1)=LEFT(F53,1)),(F52&lt;&gt;F53)),"X","")</f>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C2:C9999">
+      <formula1>=Reference!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D2:D9999">
+      <formula1>=Reference!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F2:F9999">
+      <formula1>=vMixConfig!$T:$T</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5395,7 +5353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -5403,7 +5361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5411,7 +5369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
